--- a/Projects/RINIELSENUS/Data/Template_2018.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchy" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
@@ -35,20 +35,23 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Hierarchy!$D$1:$D$111</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$O$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
@@ -59,8 +62,10 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10857" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10863" uniqueCount="618">
   <si>
     <t xml:space="preserve">Set name</t>
   </si>
@@ -1756,6 +1761,12 @@
   </si>
   <si>
     <t xml:space="preserve">Breed Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings Minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate Stitching Group</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -2170,7 +2181,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2391,15 +2402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2529,17 +2532,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6882,14 +6885,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8825910931174"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -7392,11 +7395,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.7004048582996"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7486,7 +7489,7 @@
       <c r="E5" s="4" t="n">
         <v>7.2</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7514,7 +7517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
@@ -7567,18 +7570,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.9838056680162"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -7609,13 +7612,13 @@
         <v>253</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>227</v>
@@ -7644,7 +7647,7 @@
         <v>229</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>42</v>
@@ -7675,12 +7678,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -7699,7 +7702,7 @@
         <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>226</v>
@@ -7729,7 +7732,7 @@
       <c r="G2" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="H2" s="60"/>
+      <c r="H2" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7755,21 +7758,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>615</v>
+      <c r="B1" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,7 +7866,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
@@ -7926,14 +7929,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -9052,18 +9055,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.3076923076923"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -9447,10 +9450,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
@@ -9532,14 +9535,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.9473684210526"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -9982,12 +9985,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -44282,33 +44285,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
         <v>217</v>
       </c>
@@ -44342,20 +44345,26 @@
       <c r="K1" s="52" t="s">
         <v>560</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="N1" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="Q1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -44363,7 +44372,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>249</v>
@@ -44377,16 +44386,22 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="27" t="n">
+      <c r="N2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="27" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -44394,7 +44409,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>229</v>
@@ -44404,24 +44419,28 @@
         <v>230</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="0"/>
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="27" t="n">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -44429,7 +44448,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -44443,18 +44462,22 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="27" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -44462,7 +44485,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -44476,18 +44499,22 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="27" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -44495,7 +44522,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -44503,24 +44530,28 @@
         <v>230</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="27" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -44542,18 +44573,22 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="27" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -44575,18 +44610,22 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="27" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -44594,7 +44633,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -44606,14 +44645,18 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="27" t="n">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -44621,7 +44664,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -44629,24 +44672,28 @@
         <v>233</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="27" t="n">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -44654,7 +44701,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -44662,22 +44709,26 @@
         <v>233</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="27" t="n">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
@@ -44685,7 +44736,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -44693,22 +44744,26 @@
         <v>233</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="27" t="n">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -44716,7 +44771,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -44730,16 +44785,22 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -44757,22 +44818,26 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="27" t="n">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -44780,7 +44845,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -44792,16 +44857,20 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O15" s="27" t="n">
+      <c r="Q15" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -44809,7 +44878,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -44817,24 +44886,28 @@
         <v>235</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="27" t="n">
+      <c r="Q16" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
@@ -44842,7 +44915,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -44856,18 +44929,22 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O17" s="27" t="n">
+      <c r="Q17" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
@@ -44875,7 +44952,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -44883,24 +44960,28 @@
         <v>235</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O18" s="27" t="n">
+      <c r="Q18" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -44908,7 +44989,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -44920,18 +45001,22 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O19" s="27" t="n">
+      <c r="Q19" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -44939,7 +45024,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -44949,20 +45034,24 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="27" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>107</v>
       </c>
@@ -44970,7 +45059,7 @@
         <v>108</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -44982,16 +45071,20 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="27" t="n">
+      <c r="Q21" s="27" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
@@ -44999,7 +45092,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -45007,26 +45100,30 @@
         <v>241</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="27" t="n">
+      <c r="Q22" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -45034,7 +45131,7 @@
         <v>110</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -45042,24 +45139,28 @@
         <v>241</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O23" s="27" t="n">
+      <c r="Q23" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
@@ -45067,7 +45168,7 @@
         <v>111</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -45075,24 +45176,28 @@
         <v>241</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O24" s="27" t="n">
+      <c r="Q24" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
@@ -45100,7 +45205,7 @@
         <v>112</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -45114,18 +45219,22 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="27" t="n">
+      <c r="Q25" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -45133,7 +45242,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="24" t="s">
@@ -45141,22 +45250,26 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="27" t="n">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -45164,7 +45277,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="24" t="s">
@@ -45172,22 +45285,28 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="27" t="n">
+      <c r="O27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -45195,7 +45314,7 @@
         <v>130</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="24" t="s">
@@ -45203,22 +45322,26 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="24" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="27" t="n">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -45226,7 +45349,7 @@
         <v>131</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="24" t="s">
@@ -45240,16 +45363,20 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="L29" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="27" t="n">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -45257,7 +45384,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="24" t="s">
@@ -45265,22 +45392,26 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
+      <c r="L30" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="27" t="n">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -45288,7 +45419,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="24" t="s">
@@ -45298,22 +45429,26 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="27" t="n">
+      <c r="P31" s="24"/>
+      <c r="Q31" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -45321,7 +45456,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="24" t="s">
@@ -45331,22 +45466,26 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="27" t="n">
+      <c r="P32" s="24"/>
+      <c r="Q32" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -45354,7 +45493,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="24" t="s">
@@ -45364,22 +45503,26 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="27" t="n">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -45387,7 +45530,7 @@
         <v>144</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="24" t="s">
@@ -45397,22 +45540,26 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="27" t="n">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -45420,7 +45567,7 @@
         <v>145</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="24" t="s">
@@ -45430,22 +45577,26 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="27" t="n">
+      <c r="P35" s="24"/>
+      <c r="Q35" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -45453,7 +45604,7 @@
         <v>146</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="24" t="s">
@@ -45463,22 +45614,26 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="27" t="n">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -45486,7 +45641,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="24" t="s">
@@ -45500,14 +45655,18 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="27" t="n">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -45515,7 +45674,7 @@
         <v>148</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="24" t="s">
@@ -45529,14 +45688,20 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="L38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="27" t="n">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -45544,7 +45709,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="24" t="s">
@@ -45554,20 +45719,24 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
+      <c r="L39" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="27" t="n">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>107</v>
       </c>
@@ -45583,26 +45752,30 @@
         <v>241</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="L40" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="27" t="n">
+      <c r="Q40" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -45618,24 +45791,28 @@
         <v>241</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="L41" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O41" s="27" t="n">
+      <c r="Q41" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
@@ -45651,24 +45828,28 @@
         <v>241</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="L42" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O42" s="27" t="n">
+      <c r="Q42" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -45690,18 +45871,22 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="L43" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O43" s="27" t="n">
+      <c r="Q43" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>26</v>
       </c>
@@ -45723,16 +45908,20 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="L44" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="27" t="n">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -45754,16 +45943,20 @@
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="L45" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="27" t="n">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
         <v>26</v>
       </c>
@@ -45777,17 +45970,20 @@
         <v>244</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="M46" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="O46" s="27" t="n">
+      <c r="Q46" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O46"/>
+  <autoFilter ref="A1:Q46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -45804,36 +46000,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="20" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>217</v>
       </c>
@@ -45847,13 +46044,13 @@
         <v>249</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>222</v>
@@ -45862,16 +46059,16 @@
         <v>223</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>227</v>
@@ -45886,11 +46083,13 @@
         <v>6</v>
       </c>
       <c r="R1" s="54" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="S1" s="54" t="s">
-        <v>596</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -45910,17 +46109,17 @@
         <v>207</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -45936,6 +46135,8 @@
       <c r="S2" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -45961,11 +46162,11 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -45997,7 +46198,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="4" t="s">
@@ -46008,9 +46209,9 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="N4" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -46042,7 +46243,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
@@ -46053,9 +46254,9 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="N5" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -46087,18 +46288,18 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -46128,10 +46329,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>234</v>
@@ -46173,7 +46374,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -46210,13 +46411,13 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -46251,18 +46452,18 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="55" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="10"/>
@@ -46292,20 +46493,20 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="55" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="10"/>
@@ -46340,15 +46541,15 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M12" s="10"/>
-      <c r="N12" s="57"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="4" t="s">
         <v>243</v>
@@ -46376,7 +46577,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
@@ -46419,18 +46620,18 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="4" t="s">
@@ -46464,7 +46665,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -46497,7 +46698,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
@@ -46508,7 +46709,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="55" t="s">
         <v>42</v>
       </c>
       <c r="O16" s="10"/>
@@ -46536,7 +46737,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
@@ -46577,18 +46778,18 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="4" t="s">
@@ -46618,7 +46819,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="4" t="s">
@@ -46629,11 +46830,11 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="56" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="56" t="s">
         <v>243</v>
       </c>
       <c r="Q19" s="10" t="n">
@@ -46659,7 +46860,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
@@ -46670,7 +46871,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="55" t="s">
         <v>42</v>
       </c>
       <c r="O20" s="10"/>
@@ -46698,7 +46899,7 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
@@ -46750,8 +46951,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.497975708502"/>
@@ -46760,7 +46961,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>
@@ -46791,13 +46992,13 @@
         <v>253</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
@@ -46814,13 +47015,13 @@
         <v>240</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/RINIELSENUS/Data/Template_2018.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018.xlsx
@@ -36,9 +36,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
@@ -52,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
@@ -63,9 +66,11 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2532,17 +2537,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6885,14 +6890,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.2024291497976"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -7395,11 +7400,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7517,7 +7522,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
@@ -7570,18 +7575,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.5222672064777"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="92.336032388664"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -7678,12 +7683,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -7758,9 +7763,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7866,7 +7871,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
@@ -7929,14 +7934,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -9055,18 +9060,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -9450,10 +9455,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
@@ -9535,14 +9540,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -9985,12 +9990,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -44287,26 +44292,26 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.7004048582996"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
   </cols>
@@ -44387,7 +44392,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>42</v>
@@ -44426,7 +44431,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="4" t="s">
@@ -44463,7 +44468,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="4" t="s">
@@ -44500,7 +44505,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="4" t="s">
@@ -44537,7 +44542,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="4" t="s">
@@ -44574,7 +44579,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="4" t="s">
@@ -44611,7 +44616,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
@@ -44646,7 +44651,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -44681,7 +44686,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -44716,7 +44721,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -44751,7 +44756,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -44786,7 +44791,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>42</v>
@@ -44825,7 +44830,7 @@
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -44858,7 +44863,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -44893,7 +44898,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -44930,7 +44935,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -44967,7 +44972,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -45002,7 +45007,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -45039,7 +45044,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -45072,7 +45077,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -45109,7 +45114,7 @@
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -45146,7 +45151,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -45183,7 +45188,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -45220,7 +45225,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -45257,7 +45262,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -45292,7 +45297,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>42</v>
@@ -45329,7 +45334,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -45364,7 +45369,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -45399,7 +45404,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -45436,7 +45441,7 @@
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -45473,7 +45478,7 @@
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -45510,7 +45515,7 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -45547,7 +45552,7 @@
         <v>585</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -45584,7 +45589,7 @@
         <v>586</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -45621,7 +45626,7 @@
         <v>587</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
@@ -45656,7 +45661,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -45689,7 +45694,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>42</v>
@@ -45724,7 +45729,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -45761,7 +45766,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -45798,7 +45803,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -45835,7 +45840,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -45872,7 +45877,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -45909,7 +45914,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -45944,7 +45949,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -45973,7 +45978,7 @@
         <v>589</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>42</v>
@@ -46008,22 +46013,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1022" min="20" style="1" width="9.10526315789474"/>
@@ -46951,8 +46956,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.497975708502"/>
@@ -46961,7 +46966,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>

--- a/Projects/RINIELSENUS/Data/Template_2018.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018.xlsx
@@ -37,10 +37,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
@@ -55,6 +57,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
@@ -67,10 +70,12 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10863" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="618">
   <si>
     <t xml:space="preserve">Set name</t>
   </si>
@@ -2537,17 +2542,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6890,14 +6895,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.6315789473684"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -7400,11 +7405,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.8785425101215"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7522,7 +7527,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
@@ -7575,18 +7580,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.1619433198381"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -7683,12 +7688,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.0242914979757"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -7763,9 +7768,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7871,7 +7876,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
@@ -7934,14 +7939,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -9060,18 +9065,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.3805668016194"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -9455,10 +9460,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.7004048582996"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
@@ -9540,14 +9545,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -9990,12 +9995,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -44292,26 +44297,26 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="68.2348178137652"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
   </cols>
@@ -44391,12 +44396,8 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
@@ -44430,9 +44431,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="0"/>
       <c r="N3" s="4" t="s">
         <v>42</v>
@@ -44467,9 +44466,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="30"/>
       <c r="N4" s="4" t="s">
         <v>42</v>
@@ -44504,9 +44501,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="30"/>
       <c r="N5" s="4" t="s">
         <v>42</v>
@@ -44541,9 +44536,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="30"/>
       <c r="N6" s="4" t="s">
         <v>42</v>
@@ -44578,9 +44571,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="30"/>
       <c r="N7" s="4" t="s">
         <v>42</v>
@@ -44615,9 +44606,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
         <v>42</v>
@@ -44650,9 +44639,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -44685,9 +44672,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
@@ -44720,9 +44705,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
@@ -44755,9 +44738,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
@@ -44790,12 +44771,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
         <v>42</v>
@@ -44829,9 +44806,7 @@
         <v>570</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
       <c r="O14" s="4" t="s">
@@ -44862,9 +44837,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -44897,9 +44870,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
@@ -44934,9 +44905,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
@@ -44971,9 +44940,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
@@ -45006,9 +44973,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
@@ -45043,9 +45008,7 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
       <c r="O20" s="4" t="s">
@@ -45076,9 +45039,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -45113,9 +45074,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="4" t="s">
@@ -45150,9 +45109,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
@@ -45187,9 +45144,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
@@ -45224,9 +45179,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
@@ -45261,9 +45214,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
@@ -45296,12 +45247,8 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
         <v>42</v>
@@ -45333,9 +45280,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
@@ -45368,9 +45313,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
@@ -45403,9 +45346,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
@@ -45440,9 +45381,7 @@
         <v>582</v>
       </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="4" t="s">
@@ -45477,9 +45416,7 @@
         <v>583</v>
       </c>
       <c r="K32" s="24"/>
-      <c r="L32" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="4" t="s">
@@ -45514,9 +45451,7 @@
         <v>584</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
@@ -45551,9 +45486,7 @@
       <c r="K34" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="L34" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="4" t="s">
@@ -45588,9 +45521,7 @@
       <c r="K35" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="L35" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="4" t="s">
@@ -45625,9 +45556,7 @@
       <c r="K36" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="L36" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="4" t="s">
@@ -45660,9 +45589,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -45693,12 +45620,8 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -45728,9 +45651,7 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
@@ -45765,9 +45686,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
@@ -45802,9 +45721,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
@@ -45839,9 +45756,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
@@ -45876,9 +45791,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
@@ -45913,9 +45826,7 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
@@ -45948,9 +45859,7 @@
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
@@ -45976,9 +45885,6 @@
       </c>
       <c r="I46" s="28" t="s">
         <v>589</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>42</v>
@@ -46013,22 +45919,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1022" min="20" style="1" width="9.10526315789474"/>
@@ -46956,8 +46862,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.497975708502"/>
@@ -46966,7 +46872,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>

--- a/Projects/RINIELSENUS/Data/Template_2018.xlsx
+++ b/Projects/RINIELSENUS/Data/Template_2018.xlsx
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$O$46</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
@@ -38,26 +38,29 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hierarchy!$A$1:$K$144</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">sales!$A$1:$E$71</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Anchor!$A$1:$N$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$Q$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Block!$A$1:$O$46</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
@@ -71,11 +74,13 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Adjacency!$A$1:$S$21</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Linear fair share'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10857" uniqueCount="616">
   <si>
     <t xml:space="preserve">Set name</t>
   </si>
@@ -1771,12 +1776,6 @@
   </si>
   <si>
     <t xml:space="preserve">Breed Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings Minimum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate Stitching Group</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -2542,17 +2541,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6895,14 +6894,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.0607287449393"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -7405,11 +7404,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7527,7 +7526,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
@@ -7580,18 +7579,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.7004048582996"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="93.1943319838057"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.10526315789474"/>
   </cols>
@@ -7622,13 +7621,13 @@
         <v>253</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>227</v>
@@ -7657,7 +7656,7 @@
         <v>229</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>42</v>
@@ -7688,12 +7687,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -7712,7 +7711,7 @@
         <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>226</v>
@@ -7768,9 +7767,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7779,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7876,7 +7875,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6"/>
@@ -7939,14 +7938,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -9065,18 +9064,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.10526315789474"/>
@@ -9460,10 +9459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
@@ -9545,14 +9544,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
   </cols>
@@ -9995,12 +9994,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="30" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="30" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="30" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="30" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -44295,30 +44294,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="68.7692307692308"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="1" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="1022" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44355,22 +44355,16 @@
       <c r="K1" s="52" t="s">
         <v>560</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>562</v>
+      <c r="L1" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>227</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -44382,7 +44376,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>249</v>
@@ -44396,14 +44390,12 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="27" t="n">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="27" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -44415,7 +44407,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>229</v>
@@ -44425,22 +44417,20 @@
         <v>230</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="27" t="n">
+      <c r="N3" s="4"/>
+      <c r="O3" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44452,7 +44442,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -44466,16 +44456,14 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="27" t="n">
+      <c r="N4" s="4"/>
+      <c r="O4" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44487,7 +44475,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -44501,16 +44489,14 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="27" t="n">
+      <c r="N5" s="4"/>
+      <c r="O5" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44522,7 +44508,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -44530,22 +44516,20 @@
         <v>230</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="27" t="n">
+      <c r="N6" s="4"/>
+      <c r="O6" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44571,16 +44555,14 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="27" t="n">
+      <c r="N7" s="4"/>
+      <c r="O7" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44606,16 +44588,14 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="27" t="n">
+      <c r="N8" s="4"/>
+      <c r="O8" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44627,7 +44607,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -44642,9 +44622,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="27" t="n">
+      <c r="O9" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44656,7 +44634,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -44664,22 +44642,20 @@
         <v>233</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="27" t="n">
+      <c r="O10" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44691,7 +44667,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -44699,20 +44675,18 @@
         <v>233</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="27" t="n">
+      <c r="O11" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44724,7 +44698,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -44732,20 +44706,18 @@
         <v>233</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="27" t="n">
+      <c r="O12" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44757,7 +44729,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -44772,13 +44744,11 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="27" t="n">
+      <c r="O13" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44800,20 +44770,18 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="4" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="27" t="n">
+      <c r="N14" s="4"/>
+      <c r="O14" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44825,7 +44793,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -44839,12 +44807,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Q15" s="27" t="n">
+      <c r="O15" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44856,7 +44822,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -44864,22 +44830,20 @@
         <v>235</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Q16" s="27" t="n">
+      <c r="O16" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44891,7 +44855,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -44906,15 +44870,13 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="O17" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44926,7 +44888,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -44934,22 +44896,20 @@
         <v>235</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Q18" s="27" t="n">
+      <c r="O18" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44961,7 +44921,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -44974,15 +44934,13 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="Q19" s="27" t="n">
+      <c r="O19" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -44994,7 +44952,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -45004,18 +44962,16 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="4" t="s">
+      <c r="L20" s="24"/>
+      <c r="M20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="27" t="n">
+      <c r="N20" s="4"/>
+      <c r="O20" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45027,7 +44983,7 @@
         <v>108</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -45041,12 +44997,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q21" s="27" t="n">
+      <c r="O21" s="27" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -45058,7 +45012,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -45066,24 +45020,22 @@
         <v>241</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="4" t="s">
+      <c r="L22" s="24"/>
+      <c r="M22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q22" s="27" t="n">
+      <c r="O22" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45095,7 +45047,7 @@
         <v>110</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -45103,22 +45055,20 @@
         <v>241</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q23" s="27" t="n">
+      <c r="O23" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45130,7 +45080,7 @@
         <v>111</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -45138,22 +45088,20 @@
         <v>241</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q24" s="27" t="n">
+      <c r="O24" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45165,7 +45113,7 @@
         <v>112</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -45180,15 +45128,13 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q25" s="27" t="n">
+      <c r="O25" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45200,7 +45146,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="24" t="s">
@@ -45208,20 +45154,18 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="27" t="n">
+      <c r="O26" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45233,7 +45177,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="24" t="s">
@@ -45241,20 +45185,18 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="27" t="n">
+      <c r="O27" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45266,7 +45208,7 @@
         <v>130</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="24" t="s">
@@ -45274,20 +45216,18 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="27" t="n">
+      <c r="O28" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45299,7 +45239,7 @@
         <v>131</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="24" t="s">
@@ -45314,13 +45254,11 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="27" t="n">
+      <c r="O29" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45332,7 +45270,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="24" t="s">
@@ -45340,20 +45278,18 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="27" t="n">
+      <c r="O30" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45365,7 +45301,7 @@
         <v>134</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="24" t="s">
@@ -45375,20 +45311,18 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="27" t="n">
+      <c r="O31" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45400,7 +45334,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="24" t="s">
@@ -45410,20 +45344,18 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="J32" s="24" t="s">
-        <v>583</v>
-      </c>
       <c r="K32" s="24"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N32" s="24"/>
-      <c r="O32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="27" t="n">
+      <c r="O32" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45435,7 +45367,7 @@
         <v>136</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="24" t="s">
@@ -45445,20 +45377,18 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="27" t="n">
+      <c r="O33" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45470,7 +45400,7 @@
         <v>144</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="24" t="s">
@@ -45480,20 +45410,18 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="24"/>
+        <v>583</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N34" s="24"/>
-      <c r="O34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="27" t="n">
+      <c r="O34" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45505,7 +45433,7 @@
         <v>145</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="24" t="s">
@@ -45515,20 +45443,18 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="24"/>
+        <v>584</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N35" s="24"/>
-      <c r="O35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="27" t="n">
+      <c r="O35" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45540,7 +45466,7 @@
         <v>146</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="24" t="s">
@@ -45550,20 +45476,18 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="24"/>
+        <v>585</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N36" s="24"/>
-      <c r="O36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="27" t="n">
+      <c r="O36" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45575,7 +45499,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="24" t="s">
@@ -45592,9 +45516,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="27" t="n">
+      <c r="O37" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45606,7 +45528,7 @@
         <v>148</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="24" t="s">
@@ -45623,9 +45545,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="27" t="n">
+      <c r="O38" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45637,7 +45557,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="24" t="s">
@@ -45647,18 +45567,16 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="27" t="n">
+      <c r="O39" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45678,24 +45596,22 @@
         <v>241</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q40" s="27" t="n">
+      <c r="O40" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45715,22 +45631,20 @@
         <v>241</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q41" s="27" t="n">
+      <c r="O41" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45750,22 +45664,20 @@
         <v>241</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q42" s="27" t="n">
+      <c r="O42" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45792,15 +45704,13 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q43" s="27" t="n">
+      <c r="O43" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45827,13 +45737,11 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="27" t="n">
+      <c r="O44" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45860,13 +45768,11 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="27" t="n">
+      <c r="O45" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -45884,17 +45790,17 @@
         <v>244</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="O46" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="M46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q46" s="27" t="n">
+      <c r="O46" s="27" t="n">
         <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q46"/>
+  <autoFilter ref="A1:O46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -45919,22 +45825,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1022" min="20" style="1" width="9.10526315789474"/>
@@ -45955,13 +45861,13 @@
         <v>249</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>222</v>
@@ -45970,16 +45876,16 @@
         <v>223</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>227</v>
@@ -45994,10 +45900,10 @@
         <v>6</v>
       </c>
       <c r="R1" s="54" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S1" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -46020,10 +45926,10 @@
         <v>207</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -46073,7 +45979,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -46109,7 +46015,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="4" t="s">
@@ -46120,7 +46026,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>42</v>
@@ -46154,7 +46060,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
@@ -46165,7 +46071,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>42</v>
@@ -46199,11 +46105,11 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -46240,10 +46146,10 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>234</v>
@@ -46285,7 +46191,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -46322,13 +46228,13 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -46363,11 +46269,11 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -46404,13 +46310,13 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -46452,12 +46358,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -46488,7 +46394,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
@@ -46531,11 +46437,11 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -46576,7 +46482,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -46609,7 +46515,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
@@ -46648,7 +46554,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
@@ -46689,11 +46595,11 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -46730,7 +46636,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="4" t="s">
@@ -46771,7 +46677,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
@@ -46810,7 +46716,7 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
@@ -46862,8 +46768,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.497975708502"/>
@@ -46872,7 +46778,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.10526315789474"/>
   </cols>
@@ -46903,13 +46809,13 @@
         <v>253</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
@@ -46926,13 +46832,13 @@
         <v>240</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
